--- a/Halogenation.xlsx
+++ b/Halogenation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Mark/Documents/Postdoc/CMCCDB/cmccdb-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE9EB38E-603A-4E4F-9DE7-5D915A0AB997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{914D4C17-6FB0-C542-9CC9-68E2C75F51ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7700" yWindow="500" windowWidth="28140" windowHeight="21900" xr2:uid="{67C290E4-36C7-6141-BA54-B171370FD48C}"/>
   </bookViews>
@@ -95,9 +95,6 @@
     <t xml:space="preserve">O=[C][Re]([C]=O)([C]=O)C1=CC=CC1 </t>
   </si>
   <si>
-    <t>Amount (mmol)</t>
-  </si>
-  <si>
     <t>Department of Chemistry and FRQNT Center for Green Chemistry and Catalysis, McGill University</t>
   </si>
   <si>
@@ -165,6 +162,9 @@
   </si>
   <si>
     <t>Hand Grind</t>
+  </si>
+  <si>
+    <t>Amount (millimole)</t>
   </si>
 </sst>
 </file>
@@ -734,7 +734,7 @@
   <dimension ref="A2:P81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -789,7 +789,7 @@
         <v>14</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>16</v>
@@ -831,19 +831,19 @@
         <v>11</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>11</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="H8" s="8" t="s">
         <v>11</v>
@@ -858,7 +858,7 @@
         <v>10</v>
       </c>
       <c r="L8" s="24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M8" s="25" t="s">
         <v>5</v>
@@ -888,25 +888,25 @@
         <v>0.29799999999999999</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E10" s="7">
         <v>0.59599999999999997</v>
       </c>
       <c r="F10" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="7">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="H10" s="6" t="s">
         <v>37</v>
-      </c>
-      <c r="G10" s="7">
-        <v>0.59599999999999997</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>38</v>
       </c>
       <c r="I10" s="7">
         <v>95</v>
       </c>
       <c r="J10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K10" s="3">
         <v>30</v>
@@ -925,25 +925,25 @@
         <v>0.29799999999999999</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11" s="7">
         <v>0.59599999999999997</v>
       </c>
       <c r="F11" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="7">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="H11" s="6" t="s">
         <v>37</v>
-      </c>
-      <c r="G11" s="7">
-        <v>0.59599999999999997</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>38</v>
       </c>
       <c r="I11" s="7">
         <v>99</v>
       </c>
       <c r="J11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K11" s="3">
         <v>30</v>
@@ -965,25 +965,25 @@
         <v>0.29799999999999999</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E12" s="7">
         <v>0.59599999999999997</v>
       </c>
       <c r="F12" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="7">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="H12" s="6" t="s">
         <v>37</v>
-      </c>
-      <c r="G12" s="7">
-        <v>0.59599999999999997</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>38</v>
       </c>
       <c r="I12" s="7">
         <v>98</v>
       </c>
       <c r="J12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K12" s="3">
         <v>30</v>
@@ -1005,25 +1005,25 @@
         <v>0.29799999999999999</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13" s="7">
         <v>0.59599999999999997</v>
       </c>
       <c r="F13" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" s="7">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="H13" s="6" t="s">
         <v>37</v>
-      </c>
-      <c r="G13" s="7">
-        <v>0.59599999999999997</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>38</v>
       </c>
       <c r="I13" s="7">
         <v>99</v>
       </c>
       <c r="J13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K13" s="3">
         <v>30</v>
@@ -1045,25 +1045,25 @@
         <v>0.29799999999999999</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E14" s="7">
         <v>0.59599999999999997</v>
       </c>
       <c r="F14" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" s="7">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="H14" s="6" t="s">
         <v>37</v>
-      </c>
-      <c r="G14" s="7">
-        <v>0.59599999999999997</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>38</v>
       </c>
       <c r="I14" s="7">
         <v>99</v>
       </c>
       <c r="J14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K14" s="3">
         <v>30</v>
@@ -1085,25 +1085,25 @@
         <v>0.29799999999999999</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E15" s="7">
         <v>0.59599999999999997</v>
       </c>
       <c r="F15" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="7">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="H15" s="6" t="s">
         <v>37</v>
-      </c>
-      <c r="G15" s="7">
-        <v>0.59599999999999997</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>38</v>
       </c>
       <c r="I15" s="7">
         <v>82</v>
       </c>
       <c r="J15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K15" s="3">
         <v>30</v>
@@ -1125,25 +1125,25 @@
         <v>0.29799999999999999</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E16" s="7">
         <v>0.59599999999999997</v>
       </c>
       <c r="F16" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" s="7">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="H16" s="6" t="s">
         <v>37</v>
-      </c>
-      <c r="G16" s="7">
-        <v>0.59599999999999997</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>38</v>
       </c>
       <c r="I16" s="7">
         <v>84</v>
       </c>
       <c r="J16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K16" s="3">
         <v>30</v>
@@ -1165,25 +1165,25 @@
         <v>0.29799999999999999</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E17" s="7">
         <v>0.59599999999999997</v>
       </c>
       <c r="F17" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G17" s="7">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="H17" s="6" t="s">
         <v>37</v>
-      </c>
-      <c r="G17" s="7">
-        <v>0.59599999999999997</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>38</v>
       </c>
       <c r="I17" s="7">
         <v>99</v>
       </c>
       <c r="J17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K17" s="3">
         <v>30</v>
@@ -1205,25 +1205,25 @@
         <v>0.29799999999999999</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E18" s="7">
         <v>0.59599999999999997</v>
       </c>
       <c r="F18" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G18" s="7">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="H18" s="6" t="s">
         <v>37</v>
-      </c>
-      <c r="G18" s="7">
-        <v>0.59599999999999997</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>38</v>
       </c>
       <c r="I18" s="7">
         <v>99</v>
       </c>
       <c r="J18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K18" s="3">
         <v>30</v>
@@ -1245,25 +1245,25 @@
         <v>0.29799999999999999</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E19" s="7">
         <v>0.59599999999999997</v>
       </c>
       <c r="F19" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" s="7">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="H19" s="6" t="s">
         <v>37</v>
-      </c>
-      <c r="G19" s="7">
-        <v>0.59599999999999997</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>38</v>
       </c>
       <c r="I19" s="7">
         <v>99</v>
       </c>
       <c r="J19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K19" s="3"/>
       <c r="L19" s="3">
@@ -1283,19 +1283,19 @@
         <v>0.29799999999999999</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E20" s="7">
         <v>0.59599999999999997</v>
       </c>
       <c r="F20" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G20" s="7">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="H20" s="6" t="s">
         <v>37</v>
-      </c>
-      <c r="G20" s="7">
-        <v>0.59599999999999997</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>38</v>
       </c>
       <c r="I20" s="7">
         <v>0</v>
@@ -1316,19 +1316,19 @@
         <v>0.29799999999999999</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E21" s="7">
         <v>0.59599999999999997</v>
       </c>
       <c r="F21" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G21" s="7">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="H21" s="6" t="s">
         <v>37</v>
-      </c>
-      <c r="G21" s="7">
-        <v>0.59599999999999997</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>38</v>
       </c>
       <c r="I21" s="7">
         <v>0</v>
@@ -1349,25 +1349,25 @@
         <v>0.29799999999999999</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E22" s="7">
         <v>0.59599999999999997</v>
       </c>
       <c r="F22" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G22" s="7">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="H22" s="6" t="s">
         <v>37</v>
-      </c>
-      <c r="G22" s="7">
-        <v>0.59599999999999997</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>38</v>
       </c>
       <c r="I22" s="7">
         <v>82</v>
       </c>
       <c r="J22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K22" s="3">
         <v>30</v>
@@ -1389,25 +1389,25 @@
         <v>0.29799999999999999</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E23" s="7">
         <v>0.59599999999999997</v>
       </c>
       <c r="F23" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G23" s="7">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="H23" s="6" t="s">
         <v>37</v>
-      </c>
-      <c r="G23" s="7">
-        <v>0.59599999999999997</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>38</v>
       </c>
       <c r="I23" s="7">
         <v>80</v>
       </c>
       <c r="J23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K23" s="3">
         <v>30</v>
@@ -1429,25 +1429,25 @@
         <v>0.29799999999999999</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E24" s="7">
         <v>0.59599999999999997</v>
       </c>
       <c r="F24" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G24" s="7">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="H24" s="6" t="s">
         <v>37</v>
-      </c>
-      <c r="G24" s="7">
-        <v>0.59599999999999997</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>38</v>
       </c>
       <c r="I24" s="7">
         <v>94</v>
       </c>
       <c r="J24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
@@ -1467,25 +1467,25 @@
         <v>0.29799999999999999</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E25" s="7">
         <v>0.59599999999999997</v>
       </c>
       <c r="F25" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G25" s="7">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="H25" s="6" t="s">
         <v>37</v>
-      </c>
-      <c r="G25" s="7">
-        <v>0.59599999999999997</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>38</v>
       </c>
       <c r="I25" s="7">
         <v>99</v>
       </c>
       <c r="J25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K25" s="3">
         <v>30</v>
@@ -1507,25 +1507,25 @@
         <v>0.29799999999999999</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E26" s="7">
         <v>0.59599999999999997</v>
       </c>
       <c r="F26" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G26" s="7">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="H26" s="6" t="s">
         <v>37</v>
-      </c>
-      <c r="G26" s="7">
-        <v>0.59599999999999997</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>38</v>
       </c>
       <c r="I26" s="7">
         <v>99</v>
       </c>
       <c r="J26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K26" s="3">
         <v>30</v>
@@ -1547,25 +1547,25 @@
         <v>0.29799999999999999</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E27" s="7">
         <v>0.59599999999999997</v>
       </c>
       <c r="F27" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G27" s="7">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="H27" s="6" t="s">
         <v>37</v>
-      </c>
-      <c r="G27" s="7">
-        <v>0.59599999999999997</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>38</v>
       </c>
       <c r="I27" s="7">
         <v>92</v>
       </c>
       <c r="J27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
@@ -1585,25 +1585,25 @@
         <v>0.29799999999999999</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E28" s="7">
         <v>0.59599999999999997</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G28" s="7">
         <v>0.59599999999999997</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I28" s="7">
         <v>9.1999999999999993</v>
       </c>
       <c r="J28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K28" s="17">
         <v>30</v>
@@ -1625,25 +1625,25 @@
         <v>0.29799999999999999</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E29" s="7">
         <v>0.59599999999999997</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G29" s="7">
         <v>0.59599999999999997</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I29" s="7">
         <v>3.6</v>
       </c>
       <c r="J29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K29" s="17">
         <v>30</v>
@@ -1665,25 +1665,25 @@
         <v>0.29799999999999999</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E30" s="7">
         <v>0.59599999999999997</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G30" s="7">
         <v>0.59599999999999997</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I30" s="7">
         <v>14.1</v>
       </c>
       <c r="J30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K30" s="17">
         <v>30</v>
@@ -1705,25 +1705,25 @@
         <v>0.29799999999999999</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E31" s="7">
         <v>0.59599999999999997</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G31" s="7">
         <v>0.59599999999999997</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I31" s="7">
         <v>74.25</v>
       </c>
       <c r="J31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K31" s="17">
         <v>30</v>
@@ -1745,25 +1745,25 @@
         <v>0.29799999999999999</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E32" s="7">
         <v>0.59599999999999997</v>
       </c>
       <c r="F32" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G32" s="7">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="H32" s="6" t="s">
         <v>37</v>
-      </c>
-      <c r="G32" s="7">
-        <v>0.59599999999999997</v>
-      </c>
-      <c r="H32" s="6" t="s">
-        <v>38</v>
       </c>
       <c r="I32" s="7">
         <v>69.3</v>
       </c>
       <c r="J32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
@@ -1783,25 +1783,25 @@
         <v>0.29799999999999999</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E33" s="7">
         <v>0.59599999999999997</v>
       </c>
       <c r="F33" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G33" s="7">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="H33" s="6" t="s">
         <v>37</v>
-      </c>
-      <c r="G33" s="7">
-        <v>0.59599999999999997</v>
-      </c>
-      <c r="H33" s="6" t="s">
-        <v>38</v>
       </c>
       <c r="I33" s="7">
         <v>88.11</v>
       </c>
       <c r="J33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K33" s="17">
         <v>30</v>
@@ -1823,25 +1823,25 @@
         <v>0.29799999999999999</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E34" s="7">
         <v>0.59599999999999997</v>
       </c>
       <c r="F34" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G34" s="7">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="H34" s="6" t="s">
         <v>37</v>
-      </c>
-      <c r="G34" s="7">
-        <v>0.59599999999999997</v>
-      </c>
-      <c r="H34" s="6" t="s">
-        <v>38</v>
       </c>
       <c r="I34" s="7">
         <v>71.28</v>
       </c>
       <c r="J34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
@@ -1861,25 +1861,25 @@
         <v>0.29799999999999999</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E35" s="7">
         <v>0.59599999999999997</v>
       </c>
       <c r="F35" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G35" s="7">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="H35" s="6" t="s">
         <v>37</v>
-      </c>
-      <c r="G35" s="7">
-        <v>0.59599999999999997</v>
-      </c>
-      <c r="H35" s="6" t="s">
-        <v>38</v>
       </c>
       <c r="I35" s="7">
         <v>41</v>
       </c>
       <c r="J35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K35" s="17">
         <v>30</v>
@@ -1901,25 +1901,25 @@
         <v>0.29799999999999999</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E36" s="7">
         <v>0.59599999999999997</v>
       </c>
       <c r="F36" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G36" s="7">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="H36" s="6" t="s">
         <v>37</v>
-      </c>
-      <c r="G36" s="7">
-        <v>0.59599999999999997</v>
-      </c>
-      <c r="H36" s="6" t="s">
-        <v>38</v>
       </c>
       <c r="I36" s="7">
         <v>52.47</v>
       </c>
       <c r="J36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
@@ -1939,25 +1939,25 @@
         <v>0.29799999999999999</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E37" s="7">
         <v>0.59599999999999997</v>
       </c>
       <c r="F37" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G37" s="7">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="H37" s="6" t="s">
         <v>37</v>
-      </c>
-      <c r="G37" s="7">
-        <v>0.59599999999999997</v>
-      </c>
-      <c r="H37" s="6" t="s">
-        <v>38</v>
       </c>
       <c r="I37" s="7">
         <v>32.799999999999997</v>
       </c>
       <c r="J37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K37" s="3">
         <v>30</v>
@@ -1979,25 +1979,25 @@
         <v>0.29799999999999999</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E38" s="7">
         <v>0.59599999999999997</v>
       </c>
       <c r="F38" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G38" s="7">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="H38" s="6" t="s">
         <v>37</v>
-      </c>
-      <c r="G38" s="7">
-        <v>0.59599999999999997</v>
-      </c>
-      <c r="H38" s="6" t="s">
-        <v>38</v>
       </c>
       <c r="I38" s="7">
         <v>53.35</v>
       </c>
       <c r="J38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
@@ -2017,25 +2017,25 @@
         <v>0.29799999999999999</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E39" s="7">
         <v>0.59599999999999997</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G39" s="7">
         <v>0.59599999999999997</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I39" s="7">
         <v>49</v>
       </c>
       <c r="J39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K39" s="3">
         <v>30</v>
@@ -2057,25 +2057,25 @@
         <v>0.29799999999999999</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E40" s="7">
         <v>0.59599999999999997</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G40" s="7">
         <v>0.59599999999999997</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I40" s="7">
         <v>46.06</v>
       </c>
       <c r="J40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
@@ -2095,25 +2095,25 @@
         <v>0.29799999999999999</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E41" s="7">
         <v>0.59599999999999997</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G41" s="7">
         <v>0.59599999999999997</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I41" s="7">
         <v>20.74</v>
       </c>
       <c r="J41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K41" s="3">
         <v>30</v>
@@ -2135,25 +2135,25 @@
         <v>0.29799999999999999</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E42" s="7">
         <v>0.59599999999999997</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G42" s="7">
         <v>0.59599999999999997</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I42" s="7">
         <v>11.75</v>
       </c>
       <c r="J42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K42" s="3">
         <v>30</v>
@@ -2175,25 +2175,25 @@
         <v>0.29799999999999999</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E43" s="7">
         <v>0.59599999999999997</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G43" s="7">
         <v>0.59599999999999997</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I43" s="7">
         <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K43" s="3">
         <v>30</v>
@@ -2215,25 +2215,25 @@
         <v>0.29799999999999999</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E44" s="7">
         <v>0.59599999999999997</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G44" s="7">
         <v>0.59599999999999997</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I44" s="7">
         <v>43.12</v>
       </c>
       <c r="J44" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K44" s="3">
         <v>30</v>
@@ -2255,25 +2255,25 @@
         <v>0.29799999999999999</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E45" s="7">
         <v>0.59599999999999997</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G45" s="7">
         <v>0.59599999999999997</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I45" s="7">
         <v>20.46</v>
       </c>
       <c r="J45" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K45" s="3">
         <v>30</v>
@@ -2295,25 +2295,25 @@
         <v>0.29799999999999999</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E46" s="7">
         <v>0.59599999999999997</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G46" s="7">
         <v>0.59599999999999997</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I46" s="7">
         <v>18.559999999999999</v>
       </c>
       <c r="J46" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
@@ -2333,25 +2333,25 @@
         <v>0.29799999999999999</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E47" s="7">
         <v>0.59599999999999997</v>
       </c>
       <c r="F47" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G47" s="7">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="H47" s="6" t="s">
         <v>37</v>
-      </c>
-      <c r="G47" s="7">
-        <v>0.59599999999999997</v>
-      </c>
-      <c r="H47" s="6" t="s">
-        <v>38</v>
       </c>
       <c r="I47" s="7">
         <v>44</v>
       </c>
       <c r="J47" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K47" s="3">
         <v>30</v>
@@ -2373,25 +2373,25 @@
         <v>0.29799999999999999</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E48" s="7">
         <v>0.59599999999999997</v>
       </c>
       <c r="F48" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G48" s="7">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="H48" s="6" t="s">
         <v>37</v>
-      </c>
-      <c r="G48" s="7">
-        <v>0.59599999999999997</v>
-      </c>
-      <c r="H48" s="6" t="s">
-        <v>38</v>
       </c>
       <c r="I48" s="7">
         <v>41.8</v>
       </c>
       <c r="J48" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
@@ -2411,25 +2411,25 @@
         <v>0.29799999999999999</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E49" s="7">
         <v>0.59599999999999997</v>
       </c>
       <c r="F49" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G49" s="7">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="H49" s="6" t="s">
         <v>37</v>
-      </c>
-      <c r="G49" s="7">
-        <v>0.59599999999999997</v>
-      </c>
-      <c r="H49" s="6" t="s">
-        <v>38</v>
       </c>
       <c r="I49" s="7">
         <v>51.3</v>
       </c>
       <c r="J49" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K49" s="3">
         <v>30</v>
@@ -2451,25 +2451,25 @@
         <v>0.29799999999999999</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E50" s="7">
         <v>0.59599999999999997</v>
       </c>
       <c r="F50" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G50" s="7">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="H50" s="6" t="s">
         <v>37</v>
-      </c>
-      <c r="G50" s="7">
-        <v>0.59599999999999997</v>
-      </c>
-      <c r="H50" s="6" t="s">
-        <v>38</v>
       </c>
       <c r="I50" s="7">
         <v>47.3</v>
       </c>
       <c r="J50" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
@@ -2489,25 +2489,25 @@
         <v>0.29799999999999999</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E51" s="7">
         <v>0.59599999999999997</v>
       </c>
       <c r="F51" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G51" s="7">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="H51" s="6" t="s">
         <v>37</v>
-      </c>
-      <c r="G51" s="7">
-        <v>0.59599999999999997</v>
-      </c>
-      <c r="H51" s="6" t="s">
-        <v>38</v>
       </c>
       <c r="I51" s="7">
         <v>17.600000000000001</v>
       </c>
       <c r="J51" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K51" s="3">
         <v>30</v>
@@ -2529,25 +2529,25 @@
         <v>0.29799999999999999</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E52" s="7">
         <v>0.59599999999999997</v>
       </c>
       <c r="F52" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G52" s="7">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="H52" s="6" t="s">
         <v>37</v>
-      </c>
-      <c r="G52" s="7">
-        <v>0.59599999999999997</v>
-      </c>
-      <c r="H52" s="6" t="s">
-        <v>38</v>
       </c>
       <c r="I52" s="7">
         <v>45.76</v>
       </c>
       <c r="J52" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
@@ -2567,25 +2567,25 @@
         <v>0.29799999999999999</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E53" s="7">
         <v>0.59599999999999997</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G53" s="7">
         <v>0.59599999999999997</v>
       </c>
       <c r="H53" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I53" s="7">
         <v>71.78</v>
       </c>
       <c r="J53" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K53" s="3">
         <v>30</v>
@@ -2607,25 +2607,25 @@
         <v>0.29799999999999999</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E54" s="7">
         <v>0.59599999999999997</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G54" s="7">
         <v>0.59599999999999997</v>
       </c>
       <c r="H54" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I54" s="7">
         <v>58.5</v>
       </c>
       <c r="J54" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K54" s="3"/>
       <c r="L54" s="3"/>
@@ -2645,25 +2645,25 @@
         <v>0.29799999999999999</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E55" s="9">
         <v>0.59599999999999997</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G55" s="9">
         <v>0.59599999999999997</v>
       </c>
       <c r="H55" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I55" s="9">
         <v>0</v>
       </c>
       <c r="J55" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K55" s="16">
         <v>30</v>
